--- a/data/trans_dic/P36$pan-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P36$pan-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>72,08; 78,48</t>
+          <t>71,92; 78,4</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>79,62; 85,51</t>
+          <t>79,71; 85,42</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>77,54; 84,23</t>
+          <t>77,65; 83,34</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>77,29; 83,44</t>
+          <t>77,65; 83,61</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>80,16; 85,97</t>
+          <t>80,08; 85,86</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>82,3; 87,96</t>
+          <t>82,25; 87,75</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>75,63; 80,04</t>
+          <t>75,63; 79,98</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>80,82; 84,74</t>
+          <t>80,74; 84,79</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>80,94; 85,19</t>
+          <t>80,85; 85,12</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>78,38; 83,79</t>
+          <t>78,73; 83,93</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>77,1; 82,41</t>
+          <t>77,42; 82,4</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>82,47; 87,19</t>
+          <t>82,46; 87,2</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>75,95; 81,37</t>
+          <t>76,5; 81,61</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>83,62; 88,23</t>
+          <t>83,87; 88,35</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>83,56; 87,88</t>
+          <t>83,43; 87,75</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>78,16; 81,88</t>
+          <t>78,02; 81,82</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>81,29; 84,69</t>
+          <t>81,33; 84,75</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>83,47; 86,98</t>
+          <t>83,54; 86,87</t>
         </is>
       </c>
     </row>
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>71,21; 78,4</t>
+          <t>70,83; 78,09</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>75,72; 81,77</t>
+          <t>75,78; 81,89</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>82,78; 88,01</t>
+          <t>82,94; 88,02</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>72,18; 78,89</t>
+          <t>72,24; 78,74</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>77,52; 83,41</t>
+          <t>77,6; 83,51</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>87,15; 91,77</t>
+          <t>87,48; 91,85</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>72,64; 77,5</t>
+          <t>72,65; 77,44</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>77,43; 81,77</t>
+          <t>77,63; 82,1</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>85,93; 89,45</t>
+          <t>85,8; 89,44</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>70,44; 76,16</t>
+          <t>70,56; 76,58</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>76,48; 81,84</t>
+          <t>76,75; 82,1</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>82,9; 87,67</t>
+          <t>82,97; 87,83</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>74,79; 79,85</t>
+          <t>74,75; 79,88</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>78,6; 83,67</t>
+          <t>78,61; 83,36</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>87,52; 91,34</t>
+          <t>87,59; 91,37</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>73,71; 77,46</t>
+          <t>73,76; 77,57</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>78,61; 82,14</t>
+          <t>78,45; 82,06</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>86,13; 89,12</t>
+          <t>86,17; 89,22</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1126,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>74,97; 77,83</t>
+          <t>74,98; 77,87</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>78,81; 81,67</t>
+          <t>78,62; 81,44</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>83,23; 85,62</t>
+          <t>83,13; 85,69</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>76,73; 79,51</t>
+          <t>76,77; 79,51</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>81,59; 84,13</t>
+          <t>81,58; 84,22</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>86,42; 88,65</t>
+          <t>86,45; 88,67</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>76,21; 78,31</t>
+          <t>76,3; 78,34</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>80,55; 82,46</t>
+          <t>80,67; 82,55</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>85,25; 86,85</t>
+          <t>85,23; 86,92</t>
         </is>
       </c>
     </row>
@@ -1190,4 +1191,963 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que desayuna, al menos, pan, tostadas, galletas, cereales, bollería, ...</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>510</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>553</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>529</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>562</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>537</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>565</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>1072</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>1090</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>1094</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>521308</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>579708</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>543429</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>555092</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>578297</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>572806</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>1076400</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>1158005</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>1116236</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>498405; 543324</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>559171; 599221</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>522606; 560868</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>534533; 575500</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>557413; 597687</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>552435; 589360</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>1044676; 1104857</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>1128356; 1185043</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>1087168; 1144575</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>729</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>807</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>711</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>806</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>833</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>1440</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>1558</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>1640</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>780105</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>814198</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>866783</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>762801</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>887295</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>893415</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>1542906</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>1701492</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>1760197</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>754877; 804823</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>788053; 838751</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>842212; 890632</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>740089; 789490</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>863933; 910124</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>869330; 914330</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>1502953; 1575985</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>1665776; 1735678</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>1723581; 1792297</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>480</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>542</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>596</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>529</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>569</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>660</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>1009</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>1111</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>1256</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>505049</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>596636</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>649762</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>517057</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>626578</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>704364</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>1022107</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>1223215</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>1354126</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>479864; 529044</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>572599; 618729</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>629045; 667583</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>494030; 538485</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>602310; 648159</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>686699; 721036</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>988999; 1054230</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>1189076; 1257596</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>1324310; 1380470</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>732</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>721</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>801</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>771</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>809</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>856</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>1503</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>1530</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>1657</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>693315</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>750809</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>802690</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>802056</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>853011</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>934251</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>1495371</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>1603820</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>1736941</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>663570; 720182</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>725918; 776552</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>777902; 823436</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>774053; 827186</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>825203; 875095</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>913233; 952727</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>1457512; 1532888</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>1565520; 1637542</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>1706368; 1766806</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>2451</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>2568</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>2733</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>2573</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>2721</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>2914</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>5024</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>5289</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>5647</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>2499777</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>2741351</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>2862664</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>2637007</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>2945181</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>3104836</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>5136784</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>5686532</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>5967500</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>2451660; 2546062</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>2689402; 2785872</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>2818298; 2905288</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>2591023; 2683720</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>2897809; 2991591</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>3061402; 3139965</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>5070013; 5205592</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>5625395; 5756348</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>5907625; 6024899</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>